--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinsaka/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinsaka/Library/CloudStorage/Dropbox/Documents/semi/rinsaka.com/sample-data-sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0224C3-A1CE-5F4E-94FA-D0FD4338F9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41921A4E-ADA6-1B41-8A60-B8FD11A6A227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16240" windowHeight="7900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,31 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(2) 年齢を入力して、20歳以上なら「成人」、20歳未満なら「未成年」と表示する</t>
-    <rPh sb="4" eb="6">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>サイイジョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイジン</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>サイミマン</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ミセイネン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(3) 信号の「R」「Y」「G」のいずれかを入力し、「R」なら「止まれ」と表示する</t>
     <rPh sb="4" eb="6">
       <t>シンゴウ</t>
@@ -785,6 +760,31 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2) 年齢を入力して、18歳以上なら「成人」、18歳未満なら「未成年」と表示する</t>
+    <rPh sb="4" eb="6">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>サイイジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイジン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>サイミマン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ミセイネン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1105,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,9 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1509,13 +1506,13 @@
     <row r="3" spans="1:5">
       <c r="A3" s="17"/>
       <c r="B3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>7</v>
@@ -1523,7 +1520,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="17">
         <v>16</v>
@@ -1538,7 +1535,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="17">
         <v>9</v>
@@ -1553,7 +1550,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="17">
         <v>12</v>
@@ -1568,7 +1565,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="17">
         <v>3</v>
@@ -1859,12 +1856,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="48.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1943,11 +1940,11 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
@@ -2249,7 +2246,7 @@
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="5">
         <v>125</v>
       </c>
     </row>
@@ -2285,17 +2282,17 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="56.25" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4" t="s">
@@ -2312,13 +2309,13 @@
       <c r="C5" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
@@ -2335,17 +2332,17 @@
       <c r="C9" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="58.5" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="A11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>42</v>
@@ -2353,22 +2350,22 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="48.75" customHeight="1">
+      <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="48.75" customHeight="1">
-      <c r="A15" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>42</v>
@@ -2376,22 +2373,22 @@
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="57.75" customHeight="1">
+      <c r="A19" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="57.75" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>42</v>
@@ -2399,25 +2396,25 @@
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="63.75" customHeight="1">
+      <c r="A23" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="63.75" customHeight="1">
-      <c r="A23" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>42</v>
@@ -2433,13 +2430,13 @@
       <c r="D25" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="68.25" customHeight="1">
-      <c r="A27" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
+      <c r="A27" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="4" t="s">
@@ -2456,17 +2453,17 @@
       <c r="C29" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A31" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="A31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>42</v>
@@ -2479,17 +2476,17 @@
       <c r="C33" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A35" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="A35" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinsaka/Library/CloudStorage/Dropbox/Documents/semi/rinsaka.com/sample-data-sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41921A4E-ADA6-1B41-8A60-B8FD11A6A227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCBE9C9-6B01-7B4B-9E23-72EE9DFC40A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16240" windowHeight="7900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="26900" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="参照1-血液型" sheetId="6" r:id="rId1"/>
@@ -22,17 +22,28 @@
     <sheet name="関数2-INT" sheetId="8" r:id="rId7"/>
     <sheet name="条件判定" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>生活費の割合</t>
     <rPh sb="0" eb="3">
@@ -786,6 +797,58 @@
     <rPh sb="37" eb="39">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B13</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1105,7 +1168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1124,15 +1187,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,27 +1223,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,6 +1237,50 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1206,7 +1292,198 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1482,122 +1759,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="23">
         <v>16</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="23">
         <v>14</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="23">
         <v>14</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="18" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" t="str">
+        <f ca="1">IF(E4="","",_xlfn.FORMULATEXT(E4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="23">
         <v>9</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="23">
         <v>7</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="23">
         <v>8</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="18" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F7" ca="1" si="0">IF(E5="","",_xlfn.FORMULATEXT(E5))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="23">
         <v>12</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="23">
         <v>11</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="23">
         <v>10</v>
       </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="18" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="23">
         <v>4</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="23">
         <v>5</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="23"/>
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="F4:F7">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="1">
+      <formula>LEN(TRIM(F4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1608,60 +1914,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="24">
         <v>30000</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="24"/>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="str">
+        <f ca="1">IF(C4="","",_xlfn.FORMULATEXT(C4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="24">
         <v>60000</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="24">
         <v>12000</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="24">
         <v>10000</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="24">
         <v>5000</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="str">
+        <f ca="1">IF(B9="","",_xlfn.FORMULATEXT(B9))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E4 E9">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="1">
+      <formula>LEN(TRIM(E4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1669,201 +1995,215 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="10" width="5.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19" thickBot="1"/>
-    <row r="3" spans="1:10" ht="19" thickBot="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="13">
+    <row r="2" spans="1:12" ht="19" thickBot="1"/>
+    <row r="3" spans="1:12" ht="19" thickBot="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>3</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>4</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>5</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <v>6</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>7</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="12">
         <v>8</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="10">
+    <row r="4" spans="1:12">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="11">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="str">
+        <f ca="1">IF(B4="","",_xlfn.FORMULATEXT(B4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="11">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="11">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="11">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="11">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="11">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="11">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="19" thickBot="1">
-      <c r="A12" s="12">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" ht="19" thickBot="1">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="1">
+      <formula>LEN(TRIM(L4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="48.25" customHeight="1">
+    <row r="1" spans="1:9" ht="48.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1877,7 +2217,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1894,128 +2234,170 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>100</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="E6" s="5">
         <v>100</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="26"/>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="str">
+        <f ca="1">IF(B6="","",_xlfn.FORMULATEXT(B6))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>200</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="E7" s="5">
         <v>200</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="24"/>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="str">
+        <f ca="1">IF(C6="","",_xlfn.FORMULATEXT(C6))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>300</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="E8" s="5">
         <v>300</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="24"/>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" t="str">
+        <f ca="1">IF(F6="","",_xlfn.FORMULATEXT(F6))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>400</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="E9" s="5">
         <v>400</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F9" s="24"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>0.05</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0.08</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>100</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="str">
+        <f ca="1">IF(B14="","",_xlfn.FORMULATEXT(B14))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>200</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>300</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5">
         <v>400</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="I6:I8">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="2">
+      <formula>LEN(TRIM(I6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="1">
+      <formula>LEN(TRIM(I14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="6" max="7" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2026,215 +2408,322 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="str">
+        <f ca="1">IF(C4="","",_xlfn.FORMULATEXT(C4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="27"/>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="str">
+        <f ca="1">IF(B5="","",_xlfn.FORMULATEXT(B5))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="2">
+      <formula>LEN(TRIM(F5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="1">
+      <formula>LEN(TRIM(G4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" thickBot="1"/>
-    <row r="3" spans="1:4">
-      <c r="A3" s="27" t="s">
+    <row r="2" spans="1:7" ht="19" thickBot="1"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="24">
         <v>86</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="24">
         <v>82</v>
       </c>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="22" t="s">
+      <c r="D4" s="29"/>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="str">
+        <f ca="1">IF(D4="","",_xlfn.FORMULATEXT(D4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="24">
         <v>81</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="24">
         <v>56</v>
       </c>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="22" t="s">
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24">
         <v>73</v>
       </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="22" t="s">
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="24">
         <v>79</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="24">
         <v>68</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" ht="19" thickBot="1">
-      <c r="A8" s="24" t="s">
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" ht="19" thickBot="1">
+      <c r="A8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="33">
         <v>71</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="33">
         <v>63</v>
       </c>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="19" t="s">
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="22" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="31"/>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="str">
+        <f ca="1">IF(B9="","",_xlfn.FORMULATEXT(B9))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="22" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="29"/>
+      <c r="F10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G14" ca="1" si="0">IF(B10="","",_xlfn.FORMULATEXT(B10))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="22" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="29"/>
+      <c r="F11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="29"/>
+      <c r="F12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:4" ht="19" thickBot="1">
-      <c r="A14" s="24" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="29"/>
+      <c r="F13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" thickBot="1">
+      <c r="A14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="2">
+      <formula>LEN(TRIM(G4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="1">
+      <formula>LEN(TRIM(G9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -2242,28 +2731,42 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="24">
+        <v>125.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="24"/>
+      <c r="C4" t="str">
+        <f ca="1">IF(B4="","",_xlfn.FORMULATEXT(B4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="24"/>
+      <c r="C5" t="str">
+        <f ca="1">IF(B5="","",_xlfn.FORMULATEXT(B5))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2278,6 +2781,7 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2286,13 +2790,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="56.25" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4" t="s">
@@ -2303,19 +2807,23 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="5">
+      <c r="B5" s="24">
         <v>17</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="24"/>
+      <c r="D5" t="str">
+        <f ca="1">IF(C5="","",_xlfn.FORMULATEXT(C5))</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4" t="s">
@@ -2326,19 +2834,23 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="5">
+      <c r="B9" s="24">
         <v>17</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="24"/>
+      <c r="D9" t="str">
+        <f ca="1">IF(C9="","",_xlfn.FORMULATEXT(C9))</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="58.5" customHeight="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="4" t="s">
@@ -2349,19 +2861,23 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="24"/>
+      <c r="D13" t="str">
+        <f ca="1">IF(C13="","",_xlfn.FORMULATEXT(C13))</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="48.75" customHeight="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="4" t="s">
@@ -2372,19 +2888,23 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="24"/>
+      <c r="D17" t="str">
+        <f ca="1">IF(C17="","",_xlfn.FORMULATEXT(C17))</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="57.75" customHeight="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="4" t="s">
@@ -2395,19 +2915,23 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="24"/>
+      <c r="D21" t="str">
+        <f ca="1">IF(C21="","",_xlfn.FORMULATEXT(C21))</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="63.75" customHeight="1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="4" t="s">
@@ -2421,22 +2945,26 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="5">
+      <c r="B25" s="24">
         <v>1</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="24">
         <v>2</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="24"/>
+      <c r="E25" t="str">
+        <f ca="1">IF(D25="","",_xlfn.FORMULATEXT(D25))</f>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="68.25" customHeight="1">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="4" t="s">
@@ -2447,19 +2975,23 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="B29" s="5">
+      <c r="B29" s="24">
         <v>17</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="24"/>
+      <c r="D29" t="str">
+        <f ca="1">IF(C29="","",_xlfn.FORMULATEXT(C29))</f>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="95.25" customHeight="1">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="4" t="s">
@@ -2470,19 +3002,23 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="B33" s="5">
+      <c r="B33" s="24">
         <v>65</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="24"/>
+      <c r="D33" t="str">
+        <f ca="1">IF(C33="","",_xlfn.FORMULATEXT(C33))</f>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="4" t="s">
@@ -2493,12 +3029,17 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="B37" s="5">
+      <c r="B37" s="24">
         <v>9999</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="24"/>
+      <c r="D37" t="str">
+        <f ca="1">IF(C37="","",_xlfn.FORMULATEXT(C37))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A31:E31"/>
@@ -2511,6 +3052,51 @@
     <mergeCell ref="A23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(D5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(D9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(D13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(D17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(D21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(D29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(D33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(D37))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(E25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinsaka/Library/CloudStorage/Dropbox/Documents/semi/rinsaka.com/sample-data-sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCBE9C9-6B01-7B4B-9E23-72EE9DFC40A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13228998-B40D-8444-9645-45F01D596FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="26900" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>生活費の割合</t>
     <rPh sb="0" eb="3">
@@ -849,6 +849,10 @@
   </si>
   <si>
     <t>B13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1938,6 +1942,13 @@
         <v>60000</v>
       </c>
       <c r="C5" s="24"/>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E6" ca="1" si="0">IF(C5="","",_xlfn.FORMULATEXT(C5))</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
@@ -1947,6 +1958,13 @@
         <v>12000</v>
       </c>
       <c r="C6" s="24"/>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
@@ -1983,7 +2001,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E4 E9">
+  <conditionalFormatting sqref="E9 E4:E6">
     <cfRule type="notContainsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(E4))&gt;0</formula>
     </cfRule>
@@ -1995,23 +2013,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="10" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" thickBot="1"/>
-    <row r="3" spans="1:12" ht="19" thickBot="1">
+    <row r="2" spans="1:15" ht="19" thickBot="1"/>
+    <row r="3" spans="1:15" ht="19" thickBot="1">
       <c r="A3" s="7"/>
       <c r="B3" s="11">
         <v>1</v>
@@ -2041,7 +2060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -2061,8 +2080,20 @@
         <f ca="1">IF(B4="","",_xlfn.FORMULATEXT(B4))</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M8" ca="1" si="0">IF(C4="","",_xlfn.FORMULATEXT(C4))</f>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N8" ca="1" si="1">IF(D4="","",_xlfn.FORMULATEXT(D4))</f>
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O8" ca="1" si="2">IF(E4="","",_xlfn.FORMULATEXT(E4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2075,8 +2106,24 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L8" ca="1" si="3">IF(B5="","",_xlfn.FORMULATEXT(B5))</f>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2089,8 +2136,24 @@
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2103,8 +2166,24 @@
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2117,8 +2196,24 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2132,7 +2227,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:15">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2146,7 +2241,7 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:15">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -2160,7 +2255,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="1:12" ht="19" thickBot="1">
+    <row r="12" spans="1:15" ht="19" thickBot="1">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -2177,7 +2272,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L4">
+  <conditionalFormatting sqref="L4:O8">
     <cfRule type="notContainsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(L4))&gt;0</formula>
     </cfRule>
@@ -2412,7 +2507,9 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
       <c r="C4" s="28"/>
       <c r="F4" s="2" t="s">
         <v>67</v>
@@ -2435,6 +2532,10 @@
         <f ca="1">IF(B5="","",_xlfn.FORMULATEXT(B5))</f>
         <v/>
       </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G13" ca="1" si="0">IF(C5="","",_xlfn.FORMULATEXT(C5))</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
@@ -2442,6 +2543,14 @@
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
+      <c r="F6" t="str">
+        <f t="shared" ref="F6:F13" ca="1" si="1">IF(B6="","",_xlfn.FORMULATEXT(B6))</f>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
@@ -2449,6 +2558,14 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
@@ -2456,6 +2573,14 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
@@ -2463,6 +2588,14 @@
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
@@ -2470,6 +2603,14 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
@@ -2477,6 +2618,14 @@
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
@@ -2484,6 +2633,14 @@
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
+      <c r="F12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
@@ -2491,16 +2648,24 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
+      <c r="F13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F5:F13">
     <cfRule type="notContainsBlanks" dxfId="13" priority="2">
       <formula>LEN(TRIM(F5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="G4:G13">
     <cfRule type="notContainsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G4))&gt;0</formula>
     </cfRule>
